--- a/data/income_statement/2digits/size/55_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/55_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>55-Accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>55-Accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,662 +841,747 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>7459976.69859</v>
+        <v>5693966.740970001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>9138287.257239999</v>
+        <v>7207954.69886</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>12001599.61971</v>
+        <v>9713013.70397</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>13508536.3771</v>
+        <v>10944750.47813</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>15107712.90573</v>
+        <v>12650394.69981</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>18318626.16397</v>
+        <v>15574766.63796</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>19767707.44543</v>
+        <v>17055183.08178</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15119224.61574</v>
+        <v>11255470.28818</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>23126309.43899</v>
+        <v>17299812.38343</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>34887544.53637</v>
+        <v>30241108.90054</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>43011228.70868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>40278427.3641</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>16723052.411</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>6778826.84437</v>
+        <v>5154327.34667</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>8261767.53975</v>
+        <v>6440303.80932</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>11141389.63137</v>
+        <v>9052298.83973</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>12705968.8581</v>
+        <v>10337409.24916</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>14179850.5915</v>
+        <v>11944299.93447</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>17273492.59838</v>
+        <v>14754530.85547</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>18574575.06815</v>
+        <v>16099231.05433</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14331954.01461</v>
+        <v>10795164.52192</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>22006999.87679</v>
+        <v>16596841.06223</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>31395329.61595</v>
+        <v>28768125.81412</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>41147839.01852001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>38572545.21124</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>15815123.652</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>539912.7070299999</v>
+        <v>462422.723</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>586257.82299</v>
+        <v>520601.82276</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>607704.2556</v>
+        <v>482995.46469</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>513554.87191</v>
+        <v>424002.48583</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>573402.8887100001</v>
+        <v>459729.25584</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>661119.1367</v>
+        <v>536883.8460199999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>749950.6314</v>
+        <v>633293.32031</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>269609.2891000001</v>
+        <v>160656.54428</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>469914.82777</v>
+        <v>330104.13343</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1027543.1726</v>
+        <v>924374.97603</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>789253.53529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>741614.40046</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>412913.92</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>141237.14719</v>
+        <v>77216.6713</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>290261.8945</v>
+        <v>247049.06678</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>252505.73274</v>
+        <v>177719.39955</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>289012.64709</v>
+        <v>183338.74314</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>354459.42552</v>
+        <v>246365.5095</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>384014.42889</v>
+        <v>283351.93647</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>443181.74588</v>
+        <v>322658.70714</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>517661.31203</v>
+        <v>299649.22198</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>649394.73443</v>
+        <v>372867.18777</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2464671.74782</v>
+        <v>548608.1103899999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1074136.15487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>964267.7524</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>495014.839</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>143005.82869</v>
+        <v>120051.19154</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>155992.39693</v>
+        <v>135926.66986</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>191742.73265</v>
+        <v>169589.12464</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>220431.9539</v>
+        <v>193403.03304</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>257825.52655</v>
+        <v>226937.43725</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>404525.92126</v>
+        <v>369308.1631600001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>529298.57813</v>
+        <v>482464.69984</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>550360.3897300001</v>
+        <v>468834.54024</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>762839.632</v>
+        <v>659444.80554</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2819102.58026</v>
+        <v>949416.7626799999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1429702.38036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1376452.5551</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>958756.9889999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>64327.82105</v>
+        <v>50094.3255</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>65494.46909000001</v>
+        <v>53550.83342</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>74702.254</v>
+        <v>64620.28995000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>97035.81844</v>
+        <v>80278.52237000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>114504.49782</v>
+        <v>94469.38090999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>218356.03647</v>
+        <v>183737.03058</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>250732.75422</v>
+        <v>209752.57421</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>322479.27133</v>
+        <v>264829.39552</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>431546.76983</v>
+        <v>374240.02551</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>541937.8486899999</v>
+        <v>515810.2702599999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>703956.3856899999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>669044.61655</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>610455.503</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>54963.88239</v>
+        <v>49346.25840999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>65499.1525</v>
+        <v>59234.69821</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>93854.83086999999</v>
+        <v>83218.94765999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>103201.67797</v>
+        <v>94181.61851</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>121490.10985</v>
+        <v>112053.89572</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>153509.06702</v>
+        <v>155838.65254</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>245857.05803</v>
+        <v>242739.82097</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>195094.03421</v>
+        <v>176332.50564</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>291594.89969</v>
+        <v>255296.91421</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2230873.66843</v>
+        <v>397692.82979</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>554267.19882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>539029.39201</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>232863.31</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>23714.12525</v>
+        <v>20610.60763</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>24998.77534</v>
+        <v>23141.13823</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>23185.64778</v>
+        <v>21749.88703</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>20194.45749</v>
+        <v>18942.89216</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>21830.91888</v>
+        <v>20414.16062</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>32660.81777</v>
+        <v>29732.48004</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>32708.76588</v>
+        <v>29972.30466</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>32787.08418999999</v>
+        <v>27672.63908</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>39697.96248</v>
+        <v>29907.86582</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>46291.06314</v>
+        <v>35913.66263000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>171478.79585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>168378.54654</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>115438.176</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7316970.8699</v>
+        <v>5573915.549430001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>8982294.860309999</v>
+        <v>7072028.029</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>11809856.88706</v>
+        <v>9543424.579329999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>13288104.4232</v>
+        <v>10751347.44509</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>14849887.37918</v>
+        <v>12423457.26256</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>17914100.24271</v>
+        <v>15205458.4748</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>19238408.8673</v>
+        <v>16572718.38194</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>14568864.22601</v>
+        <v>10786635.74794</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>22363469.80699</v>
+        <v>16640367.57789</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>32068441.95611</v>
+        <v>29291692.13786</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>41581526.32832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>38901974.809</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15764295.422</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4857650.04881</v>
+        <v>3781916.23106</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6060605.6945</v>
+        <v>4821034.48571</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7423860.078840001</v>
+        <v>6066374.799430001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8836615.534499999</v>
+        <v>7221790.115270001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9755465.81924</v>
+        <v>8344398.25629</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12018176.67983</v>
+        <v>10352612.62922</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>13251661.86768</v>
+        <v>11509394.39625</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>11729544.75679</v>
+        <v>8748100.713129999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>15523716.50786</v>
+        <v>11632725.84021</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17780045.16765</v>
+        <v>16440505.98492</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>24817297.57978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23476830.21423</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11762757.953</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>210644.69917</v>
+        <v>166585.95362</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>117245.25993</v>
+        <v>91663.21289</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>164274.95407</v>
+        <v>122376.60018</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>253631.76553</v>
+        <v>205196.30007</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>283864.66785</v>
+        <v>230616.27829</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>418905.34598</v>
+        <v>336763.7702</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>285821.82734</v>
+        <v>289392.78212</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>316610.91955</v>
+        <v>245174.75839</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>665482.18175</v>
+        <v>559629.7414300001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>448158.09582</v>
+        <v>422961.94862</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>731016.5053899999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>711288.86578</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>615630.478</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>242455.11496</v>
+        <v>208729.55293</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>319341.0335899999</v>
+        <v>284166.09569</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>466560.57609</v>
+        <v>419800.79438</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>488298.30894</v>
+        <v>441075.57153</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>499750.02907</v>
+        <v>415601.55373</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>504659.80146</v>
+        <v>441542.58472</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>606449.45949</v>
+        <v>550837.9923399999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>650653.76329</v>
+        <v>588259.14429</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>915786.71815</v>
+        <v>802202.21459</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>819921.5617799999</v>
+        <v>748890.65575</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1406544.00625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1318926.48871</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1063894.263</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>4384949.123769999</v>
+        <v>3399558.22074</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5614064.50205</v>
+        <v>4437687.39196</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>6727865.001509999</v>
+        <v>5465981.458729999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>8081684.981889999</v>
+        <v>6565166.17725</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>8957812.437829999</v>
+        <v>7688275.69767</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>11058725.30311</v>
+        <v>9561021.934839999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>12337242.43334</v>
+        <v>10661636.7843</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>10703477.62054</v>
+        <v>7876901.39857</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>13744584.08373</v>
+        <v>10132510.53112</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>16458719.59278</v>
+        <v>15231876.86625</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>22647976.06053</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>21419945.30848</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>10047770.162</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>19601.11091</v>
+        <v>7042.503769999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>9954.898929999999</v>
+        <v>7517.78517</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>65159.54717000001</v>
+        <v>58215.94614</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>13000.47814</v>
+        <v>10352.06642</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>14038.68449</v>
+        <v>9904.7266</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>35886.22928</v>
+        <v>13284.33946</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>22148.14751</v>
+        <v>7526.83749</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>58802.45340999999</v>
+        <v>37765.41188</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>197863.52423</v>
+        <v>138383.35307</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>53245.91727000001</v>
+        <v>36776.5143</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>31761.00761</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>26669.55126</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>35463.05</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2459320.82109</v>
+        <v>1791999.31837</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2921689.165810001</v>
+        <v>2250993.54329</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4385996.808219999</v>
+        <v>3477049.7799</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4451488.888700001</v>
+        <v>3529557.32982</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>5094421.559939999</v>
+        <v>4079059.00627</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5895923.56288</v>
+        <v>4852845.845579999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5986746.99962</v>
+        <v>5063323.98569</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2839319.46922</v>
+        <v>2038535.03481</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>6839753.299129999</v>
+        <v>5007641.73768</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>14288396.78846</v>
+        <v>12851186.15294</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>16764228.74854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15425144.59477</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4001537.469</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1918845.10247</v>
+        <v>1403359.83424</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2317045.35546</v>
+        <v>1750753.72606</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2649021.43664</v>
+        <v>2030399.08192</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3036015.47568</v>
+        <v>2278830.57889</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3396635.34606</v>
+        <v>2607902.03741</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4189454.57392</v>
+        <v>3114549.179</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4579916.50743</v>
+        <v>3595238.40218</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4370369.06104</v>
+        <v>2876117.96043</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4956423.45861</v>
+        <v>3402914.52202</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5732216.51407</v>
+        <v>4876182.628819999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7627762.33425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6757117.24916</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4107768.766</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>6.7161</v>
+        <v>0</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1298.42288</v>
+        <v>1210.366</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3.89441</v>
+        <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4.1548</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>31.03474</v>
+        <v>0</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>0</v>
@@ -1606,479 +1592,544 @@
       <c r="M21" s="48" t="n">
         <v>792.74446</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>884.283</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>223733.02716</v>
+        <v>173553.85932</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>270860.9886</v>
+        <v>220751.19044</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>365181.373</v>
+        <v>286222.91942</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>421592.04933</v>
+        <v>346697.68996</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>481229.6041800001</v>
+        <v>410734.05823</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>627608.8903699999</v>
+        <v>509472.3014</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>745138.6844599999</v>
+        <v>632642.2810899999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>675013.3769899999</v>
+        <v>494077.61158</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>874409.10521</v>
+        <v>679147.6190600001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1128226.42941</v>
+        <v>1037791.23814</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1497301.9542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1407310.32436</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>736176.0699999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1695105.35921</v>
+        <v>1229805.97492</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2046184.36686</v>
+        <v>1530002.53562</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2282541.64076</v>
+        <v>1742965.7965</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2614422.92635</v>
+        <v>1932132.88893</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2915401.84747</v>
+        <v>2197167.97918</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3561841.528750001</v>
+        <v>2605076.8776</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3834777.82297</v>
+        <v>2962596.12109</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3695324.64931</v>
+        <v>2382040.34885</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4082014.353399999</v>
+        <v>2723766.90296</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4603990.08466</v>
+        <v>3838391.39068</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6129667.63559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5349014.18034</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3370708.413</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>540475.7186200001</v>
+        <v>388639.48413</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>604643.81035</v>
+        <v>500239.81723</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1736975.37158</v>
+        <v>1446650.69798</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1415473.41302</v>
+        <v>1250726.75093</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1697786.21388</v>
+        <v>1471156.96886</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1706468.98896</v>
+        <v>1738296.66658</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1406830.49219</v>
+        <v>1468085.58351</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1531049.59182</v>
+        <v>-837582.9256199999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1883329.84052</v>
+        <v>1604727.21566</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8556180.274390001</v>
+        <v>7975003.52412</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9136466.41429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8668027.345609998</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-106231.297</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1159143.69572</v>
+        <v>788811.40222</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1349494.83703</v>
+        <v>908384.5300599999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2192108.72881</v>
+        <v>1476120.91608</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2011943.70391</v>
+        <v>1349517.89752</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3039708.8221</v>
+        <v>2227609.70881</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3936694.920979999</v>
+        <v>2574388.27342</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5842207.46354</v>
+        <v>4047516.87114</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4371641.69852</v>
+        <v>2643834.311350001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5909069.49848</v>
+        <v>3769295.34613</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>19289285.17358</v>
+        <v>16186346.40924</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>11064650.56879</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>9603105.611300001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>11105165.132</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>12553.42606</v>
+        <v>11103.4138</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4415.09137</v>
+        <v>3398.27309</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>15178.31225</v>
+        <v>12106.17489</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>17592.81461</v>
+        <v>11442.24304</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>132697.53706</v>
+        <v>28684.49516</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>82595.32179</v>
+        <v>27634.02959</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>54617.97011</v>
+        <v>42595.41481</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>369759.1071</v>
+        <v>310538.13118</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>85260.34417</v>
+        <v>44593.42184</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>97262.95009999999</v>
+        <v>64489.60542</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>138439.71186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>132988.51507</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>26283.019</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2100.30363</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>3607.60079</v>
+        <v>2438.46179</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>11968.05826</v>
+        <v>1256.53023</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>53170.80917</v>
+        <v>4225.499059999999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>22162.49585</v>
+        <v>5196.07637</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>40393.50715</v>
+        <v>10861.41822</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>111521.67499</v>
+        <v>93416.09711</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>13102.74826</v>
+        <v>1682.37239</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>97288.73121</v>
+        <v>26517.70843</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>19371.94314</v>
+        <v>4302.80976</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>116285.8914</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>84248.58367000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>8104.248</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>114555.53429</v>
+        <v>78436.80542</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>113359.94918</v>
+        <v>82812.46179999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>153085.11507</v>
+        <v>106459.19057</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>218469.92627</v>
+        <v>126899.73223</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>226036.33943</v>
+        <v>150596.52505</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>306716.86243</v>
+        <v>195816.01146</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>340955.88386</v>
+        <v>192728.98027</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>349634.97768</v>
+        <v>153799.75505</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>505159.17623</v>
+        <v>267111.57238</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>700070.1799600001</v>
+        <v>479501.84916</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>783164.99013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>469647.3867</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>346698.053</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>905.84339</v>
+        <v>708.12174</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4344.039019999999</v>
+        <v>1954.42194</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>6248.48594</v>
+        <v>4340.745940000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1289.99118</v>
+        <v>1280.98896</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>986.32482</v>
+        <v>971.0606399999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5659.68532</v>
+        <v>782.52841</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4666.29801</v>
+        <v>2236.8628</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5258.24345</v>
+        <v>2130.11443</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1962.89359</v>
+        <v>1324.35144</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2944.95309</v>
+        <v>2735.95116</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>10433.90452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>10190.16988</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3441.34</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>48642.82142</v>
+        <v>14290.65517</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>15316.29771</v>
+        <v>13411.31617</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>15986.81989</v>
+        <v>7285.29319</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>20661.71296</v>
+        <v>10697.79152</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>89158.09318000001</v>
+        <v>77205.26693000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>89553.06132000001</v>
+        <v>81333.82609</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>82762.44615</v>
+        <v>77393.35215999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>91446.80239999999</v>
+        <v>83332.09813</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>99082.22317999999</v>
+        <v>83669.95667</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>112554.67251</v>
+        <v>81510.47353</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>100800.23469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>96785.31408</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>85417.49099999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>12272.9984</v>
+        <v>519.8649799999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>26977.83352</v>
+        <v>995.26638</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>25749.14585</v>
+        <v>19267.86241</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>32557.69763</v>
+        <v>29400.75797</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>70351.90822</v>
+        <v>25502.97149</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>361826.14989</v>
+        <v>17581.37726</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>189473.48503</v>
+        <v>48227.43454</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>115300.09325</v>
+        <v>6979.70904</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>96357.05014000001</v>
+        <v>2353.70928</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>426044.58283</v>
+        <v>42080.27543</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>345974.25019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>95527.42776000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>27630.384</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>660419.64231</v>
+        <v>456872.3889</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>995114.36138</v>
+        <v>682527.04948</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1631721.88305</v>
+        <v>1165371.33851</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1385758.0186</v>
+        <v>972660.5656900001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2141888.12625</v>
+        <v>1690672.47672</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2603400.55201</v>
+        <v>1926026.31624</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4541988.998259999</v>
+        <v>3250947.49966</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2939330.77675</v>
+        <v>1761309.94725</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4472776.51961</v>
+        <v>3034861.10137</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>17277145.00444</v>
+        <v>14995623.88841</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>8729284.36279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7937683.8334</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>10154745.062</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2738.12847</v>
+        <v>1546.75857</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>955.7485</v>
+        <v>787.3334</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>326.64244</v>
+        <v>302.1545</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>76.44691</v>
+        <v>50.98695</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>6286.19752</v>
+        <v>6204.99467</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>950.4229399999999</v>
+        <v>922.26865</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>803.34136</v>
+        <v>604.95804</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>7774.386759999999</v>
+        <v>7777.699070000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1797.35299</v>
+        <v>1672.58976</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>932.99545</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>5905.458820000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>5897.78642</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>10397.988</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>557.7682</v>
@@ -2090,10 +2141,10 @@
         <v>5.585109999999999</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>40.04164</v>
+        <v>5.13114</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>10.88108</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2102,283 +2153,318 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>1362.06968</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>51.89109</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>38.63171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>8.30231</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>304397.22955</v>
+        <v>222675.32181</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>183538.17219</v>
+        <v>118194.20264</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>331838.68095</v>
+        <v>159726.04073</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>282326.2449400001</v>
+        <v>192854.20096</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>350130.91869</v>
+        <v>242575.84178</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>445599.35813</v>
+        <v>313430.4975</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>515417.36577</v>
+        <v>339366.27175</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>478672.49319</v>
+        <v>316284.4848099999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>549333.31627</v>
+        <v>307190.93496</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>652957.8920600001</v>
+        <v>515168.56092</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>834323.1326799999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>770128.29201</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>442447.547</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>747371.64031</v>
+        <v>502996.27028</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>808959.5425</v>
+        <v>559176.86736</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2479317.31538</v>
+        <v>1635139.56654</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1012748.84057</v>
+        <v>734800.5079200001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3784026.03143</v>
+        <v>2781301.09678</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2654439.72277</v>
+        <v>1865328.32758</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6507517.05889</v>
+        <v>4425884.99285</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5487145.747329999</v>
+        <v>3128191.72531</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7916742.759699999</v>
+        <v>5415497.73018</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>22623645.46832</v>
+        <v>19527474.64346</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>11833873.55031</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>10471283.62097</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>16833893.327</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>20498.39472</v>
+        <v>18357.63049</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>21391.7014</v>
+        <v>18055.10954</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>35811.32074</v>
+        <v>32945.60944</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>39810.51177</v>
+        <v>33063.5527</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>49752.39368</v>
+        <v>43539.76769</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>59306.29863</v>
+        <v>51473.41737</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>71937.40145</v>
+        <v>63839.30853</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>66228.99322</v>
+        <v>50218.78633</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>95579.82779</v>
+        <v>73804.89877</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>126290.61428</v>
+        <v>105299.67817</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>163317.73193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>147919.31883</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>69896.546</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>38956.32615</v>
+        <v>23412.57958</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>37107.53913</v>
+        <v>28452.29623</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>50694.89361000001</v>
+        <v>44733.66267000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>16346.83953</v>
+        <v>11848.32392</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>62362.26402</v>
+        <v>51822.74302</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>47568.42196</v>
+        <v>39597.16157</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>99116.57945999999</v>
+        <v>82544.02409000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>78308.27962</v>
+        <v>39894.93307</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>40424.74987</v>
+        <v>20244.52961</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>40754.5405</v>
+        <v>37761.19954</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>533300.40063</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>470398.43405</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>187311.082</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>17776.92114</v>
+        <v>5158.391860000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>18536.43016</v>
+        <v>12144.74866</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>16399.4618</v>
+        <v>13007.26703</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>25019.54653</v>
+        <v>15324.05861</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>20742.20627</v>
+        <v>10416.64863</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>14922.07187</v>
+        <v>1343.13654</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>3566.652</v>
+        <v>5347.07849</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4331.08033</v>
+        <v>3603.60005</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1328.67468</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>5948.27468</v>
+        <v>814.6451</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2572.95551</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1045.05625</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>12407.089</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>576747.7041699999</v>
+        <v>382306.84684</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>690139.6527999999</v>
+        <v>474549.37147</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2299524.72025</v>
+        <v>1487474.02404</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>839798.1502499999</v>
+        <v>596017.5970900001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3551670.28893</v>
+        <v>2593702.89944</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2407649.72463</v>
+        <v>1668657.78379</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6189407.42805</v>
+        <v>4152615.48495</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5257897.72916</v>
+        <v>2979065.27243</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>7641208.610470001</v>
+        <v>5250380.28295</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>22277655.35973</v>
+        <v>19256512.47046</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10858720.36752</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9641805.678280002</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>16422964.165</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1714.59181</v>
+        <v>446.40509</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>216.06864</v>
+        <v>196.76498</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>6674.685179999999</v>
+        <v>4031.46491</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1192.22553</v>
+        <v>1132.90843</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1993.33389</v>
+        <v>1988.88815</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2107.0176</v>
+        <v>2019.76643</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>667.58533</v>
+        <v>338.73494</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1133.04514</v>
+        <v>1367.17496</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>724.2225999999999</v>
+        <v>356.49533</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>2232.0973</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>6577.28438</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>5128.069</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2408,7 +2499,7 @@
         <v>182.50093</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>1.68886</v>
+        <v>185.07374</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>196.6854</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>91677.70232</v>
+        <v>73314.41642000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>41410.84673</v>
+        <v>25621.27284</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>70212.2338</v>
+        <v>52947.53845</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>90171.41644</v>
+        <v>77003.91665</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>97323.04371</v>
+        <v>79647.64892000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>122884.49922</v>
+        <v>102051.98814</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>142624.7272</v>
+        <v>121003.67645</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>79246.61986000001</v>
+        <v>54041.95847</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>137476.67429</v>
+        <v>70711.52352000002</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>170764.57394</v>
+        <v>124854.545</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>269384.81034</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>203537.84918</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>136171.486</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>663007.46728</v>
+        <v>435601.4542799999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>629443.58613</v>
+        <v>421303.40295</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1332799.63982</v>
+        <v>999357.2191</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>949623.2485100001</v>
+        <v>609008.73415</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2111930.70761</v>
+        <v>1341048.46241</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1463684.89267</v>
+        <v>989493.2726</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2570624.64169</v>
+        <v>1889985.80957</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3130456.195</v>
+        <v>1825139.61438</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4157871.23622</v>
+        <v>2633536.59179</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>8619036.52593</v>
+        <v>6758206.63289</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>5738054.50277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4741479.063899999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6811201.539</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>409969.87821</v>
+        <v>257010.90022</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>358440.8475800001</v>
+        <v>235805.78618</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>667091.3041</v>
+        <v>463462.07643</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>611619.7840100001</v>
+        <v>367960.2078499999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1224632.16733</v>
+        <v>899468.7018500001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>915315.94517</v>
+        <v>563660.56013</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1385014.32893</v>
+        <v>982198.5026900001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1604015.23323</v>
+        <v>954745.93195</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2071595.61278</v>
+        <v>1193393.19099</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3530032.3079</v>
+        <v>2316400.0646</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2797948.35877</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2073646.72194</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2687678.127</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>253037.58907</v>
+        <v>178590.55406</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>271002.73855</v>
+        <v>185497.61677</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>665708.33572</v>
+        <v>535895.14267</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>338003.4645</v>
+        <v>241048.5263</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>887298.54028</v>
+        <v>441579.76056</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>548368.9475</v>
+        <v>425832.71247</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1185610.31276</v>
+        <v>907787.30688</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1526440.96177</v>
+        <v>870393.6824299999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2086275.62344</v>
+        <v>1440143.4008</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>5089004.21803</v>
+        <v>4441806.56829</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2940106.144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2667832.34196</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4123523.412</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>289240.30675</v>
+        <v>238853.16179</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>515735.51875</v>
+        <v>428144.07698</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>116967.14519</v>
+        <v>288274.82842</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1465045.02785</v>
+        <v>1256435.40638</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1158461.70306</v>
+        <v>-423582.8815200001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1525039.2945</v>
+        <v>1457863.33982</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1829103.74485</v>
+        <v>-800268.34777</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-5777009.835630001</v>
+        <v>-3147079.95396</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-4282214.65692</v>
+        <v>-2675011.76018</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-3397216.54628</v>
+        <v>-2124331.34299</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2629188.93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3058370.27204</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-12646161.031</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>195772.18925</v>
+        <v>105211.8962</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>216134.53318</v>
+        <v>106640.00149</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>289794.69276</v>
+        <v>126655.20096</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>227450.15851</v>
+        <v>137922.24495</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>835389.8971099999</v>
+        <v>278378.7965</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>874514.89323</v>
+        <v>612133.0143500001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>960937.19357</v>
+        <v>766066.09883</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>815404.92</v>
+        <v>393393.51425</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>923888.55528</v>
+        <v>491611.11264</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>506207.68468</v>
+        <v>454338.37016</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1255096.96595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>572181.3031</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>402886.356</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>5166.53793</v>
+        <v>3667.78552</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2745.04052</v>
+        <v>2179.29497</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>5757.844150000001</v>
+        <v>3473.16183</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>6169.40748</v>
+        <v>3140.47878</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2579.2777</v>
+        <v>2120.14409</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4411.67021</v>
+        <v>909.54849</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4343.49627</v>
+        <v>775.90712</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4490.95628</v>
+        <v>1620.71016</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>10057.76055</v>
+        <v>1848.49306</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>75459.78134999999</v>
+        <v>75362.03331999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>18452.31492</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>18399.14082</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4322.775</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>190605.65132</v>
+        <v>101544.11068</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>213389.49266</v>
+        <v>104460.70652</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>284036.84861</v>
+        <v>123182.03913</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>221280.75103</v>
+        <v>134781.76617</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>832810.6194099999</v>
+        <v>276258.65241</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>870103.22302</v>
+        <v>611223.46586</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>956593.6973</v>
+        <v>765290.19171</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>810913.96372</v>
+        <v>391772.80409</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>913830.79473</v>
+        <v>489762.61958</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>430747.90333</v>
+        <v>378976.3368400001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1236644.65103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>553782.1622799999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>398563.581</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>154238.93748</v>
+        <v>87317.97626000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>242046.63835</v>
+        <v>136805.90873</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>710968.31972</v>
+        <v>444157.83721</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>370791.63764</v>
+        <v>154871.00348</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>307288.72898</v>
+        <v>170383.57103</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>473651.21586</v>
+        <v>298406.38613</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>357274.34219</v>
+        <v>196091.94102</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>604733.33748</v>
+        <v>337305.12195</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1458300.25653</v>
+        <v>365281.47279</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>627034.6712</v>
+        <v>478364.18463</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>810531.64983</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>585682.6798299999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>312722.539</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>20584.38178</v>
+        <v>13336.35542</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>18051.19754</v>
+        <v>5955.18707</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>20944.37307</v>
+        <v>7998.9586</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>26489.18876</v>
+        <v>21391.74024</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>38107.25417</v>
+        <v>23545.4511</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>33508.748</v>
+        <v>26200.99273</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>25066.45335</v>
+        <v>16556.14204</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>32811.93046</v>
+        <v>23960.34218</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>31967.57468</v>
+        <v>17693.67844</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>20101.40446</v>
+        <v>20097.53646</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>36854.77904</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>30117.0779</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>47049.412</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>19150.50723</v>
+        <v>12196.22939</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>27548.18296</v>
+        <v>23621.66581</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>19666.35208</v>
+        <v>15975.45787</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>15645.94239</v>
+        <v>9283.052039999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>43331.20445999999</v>
+        <v>15288.0982</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>34529.91834999999</v>
+        <v>24642.49903</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>31427.14595</v>
+        <v>14613.55807</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>22699.30826</v>
+        <v>7141.75762</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>23801.4006</v>
+        <v>15189.11347</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>28763.91496</v>
+        <v>25559.10554</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>153337.79614</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>86320.57665</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>18126.23</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>114504.04847</v>
+        <v>61785.39145</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>196447.25785</v>
+        <v>107229.05585</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>670357.59457</v>
+        <v>420183.42074</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>328656.5064899999</v>
+        <v>124196.2112</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>225850.27035</v>
+        <v>131550.02173</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>405612.54951</v>
+        <v>247562.89437</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>300780.74289</v>
+        <v>164922.24091</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>549222.09876</v>
+        <v>306203.02215</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1402531.28125</v>
+        <v>332398.68088</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>578169.35178</v>
+        <v>432707.54263</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>620339.07465</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>469245.0252800001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>247546.897</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>330773.55852</v>
+        <v>256747.08173</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>489823.41358</v>
+        <v>397978.16974</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-304206.48177</v>
+        <v>-29227.80783</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1321703.54872</v>
+        <v>1239486.64785</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-630360.53493</v>
+        <v>-315587.65605</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1925902.97187</v>
+        <v>1771589.96804</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1225440.89347</v>
+        <v>-230294.18996</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-5566338.25311</v>
+        <v>-3090991.56166</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-4816626.358169999</v>
+        <v>-2548682.12033</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-3518043.5328</v>
+        <v>-2148357.15746</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3073754.24612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3044868.89531</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-12555997.214</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>84477.09589</v>
+        <v>59037.49865</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>122497.15707</v>
+        <v>90439.20757</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>201454.64791</v>
+        <v>165345.06277</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>206700.62027</v>
+        <v>164653.70813</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>189851.98699</v>
+        <v>155463.55181</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>254750.06021</v>
+        <v>217531.72633</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>233621.32563</v>
+        <v>205636.26348</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>97043.3312</v>
+        <v>74001.94329000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>195012.52676</v>
+        <v>143910.51581</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>438149.2607</v>
+        <v>394789.68434</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>568473.4142300001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>487831.73605</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>81046.458</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>246296.46263</v>
+        <v>197709.58308</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>367326.25651</v>
+        <v>307538.96217</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-505661.12968</v>
+        <v>-194572.8706</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1115002.92845</v>
+        <v>1074832.93972</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-820212.52192</v>
+        <v>-471051.20786</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1671152.91166</v>
+        <v>1554058.24171</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1459062.2191</v>
+        <v>-435930.45344</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-5663381.58431</v>
+        <v>-3164993.50495</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-5011638.884930001</v>
+        <v>-2692592.63614</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3956192.793500001</v>
+        <v>-2543146.8418</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2505280.83189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2557037.15926</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-12637043.672</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>384</v>
+        <v>152</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>431</v>
+        <v>178</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>494</v>
+        <v>197</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>435</v>
+        <v>208</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>494</v>
+        <v>225</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>546</v>
+        <v>231</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>594</v>
+        <v>167</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>646</v>
+        <v>192</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>338</v>
+        <v>217</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>256</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>